--- a/Without Infomation/ParallelHomogeneous.xlsx
+++ b/Without Infomation/ParallelHomogeneous.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>EB_i</t>
+  </si>
+  <si>
+    <t>EB_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -153,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,17 +190,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,28 +217,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -307,7 +333,7 @@
         <v>0.99998474351649513</v>
       </c>
       <c r="E5" s="0">
-        <v>9.1781613280610367e-94</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
         <v>0.35238022587065376</v>
@@ -333,7 +359,7 @@
         <v>0.74988570415749745</v>
       </c>
       <c r="E6" s="0">
-        <v>1.1009131252366338e-13</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0.33649825919466336</v>
@@ -359,7 +385,7 @@
         <v>0.59999963630228892</v>
       </c>
       <c r="E7" s="0">
-        <v>8.2464796702492457e-10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0.32063487287578674</v>
@@ -385,7 +411,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="0">
-        <v>5.7220458984374998e-08</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
         <v>0.3047619501749671</v>
@@ -411,7 +437,7 @@
         <v>0.42856526822665236</v>
       </c>
       <c r="E9" s="0">
-        <v>7.2358121970642791e-07</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
         <v>0.28888816685028396</v>
@@ -437,7 +463,7 @@
         <v>0.37496894171630141</v>
       </c>
       <c r="E10" s="0">
-        <v>3.9742174203535881e-06</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
         <v>0.27301192737809643</v>
@@ -463,7 +489,7 @@
         <v>0.33323278526348504</v>
       </c>
       <c r="E11" s="0">
-        <v>1.3571622209368219e-05</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
         <v>0.2571284924546462</v>
@@ -489,7 +515,7 @@
         <v>0.29975890864248295</v>
       </c>
       <c r="E12" s="0">
-        <v>3.4421160546486947e-05</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
         <v>0.24123155046095957</v>
@@ -515,7 +541,7 @@
         <v>0.27225328187075648</v>
       </c>
       <c r="E13" s="0">
-        <v>7.1572487478946937e-05</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0.22531384296508394</v>
@@ -541,7 +567,7 @@
         <v>0.24918814189241023</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00012948295261684911</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0">
         <v>0.20936818640830501</v>
@@ -567,7 +593,7 @@
         <v>0.22951474676798728</v>
       </c>
       <c r="E15" s="0">
-        <v>0.00021166231517653436</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
         <v>0.19339193065968718</v>
@@ -593,7 +619,7 @@
         <v>0.21248184443088089</v>
       </c>
       <c r="E16" s="0">
-        <v>0.00032068022325220687</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0">
         <v>0.17737691615260032</v>
@@ -619,7 +645,7 @@
         <v>0.19754865475000669</v>
       </c>
       <c r="E17" s="0">
-        <v>0.00045822284168073465</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0">
         <v>0.16132110665048871</v>
@@ -645,7 +671,7 @@
         <v>0.18431228215199041</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00062528180554896888</v>
+        <v>0</v>
       </c>
       <c r="F18" s="0">
         <v>0.14522216572471169</v>
@@ -671,7 +697,7 @@
         <v>0.17246671826951387</v>
       </c>
       <c r="E19" s="0">
-        <v>0.00082232817501069581</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
         <v>0.12907714820275218</v>
@@ -697,7 +723,7 @@
         <v>0.16177977007161826</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0010493633155871384</v>
+        <v>0</v>
       </c>
       <c r="F20" s="0">
         <v>0.1128890976703173</v>
@@ -723,7 +749,7 @@
         <v>0.15206546692278877</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0013061870899744045</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0.096654663349239223</v>
@@ -749,7 +775,7 @@
         <v>0.14317815148150553</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0015923603956654543</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0.080374011347130736</v>
@@ -775,7 +801,7 @@
         <v>0.13500088762565507</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0019072992109831566</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0.064047899930840924</v>
@@ -801,7 +827,7 @@
         <v>0.12743836074134274</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0022503364730775384</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0.047676851414517496</v>
@@ -827,7 +853,7 @@
         <v>0.12041223202815196</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0026207506212152717</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0.0312615337981903</v>
@@ -853,7 +879,7 @@
         <v>0.1138574850107716</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0030177909410112813</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0">
         <v>0.014802718712627061</v>
@@ -879,7 +905,7 @@
         <v>0.10771967628245947</v>
       </c>
       <c r="E27" s="0">
-        <v>0.0034406956778363089</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0">
         <v>-0.0016987499002973916</v>
@@ -905,7 +931,7 @@
         <v>0.10195284044190384</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0038887048570702084</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>-0.018241980383703171</v>
@@ -931,7 +957,7 @@
         <v>0.096517874882214263</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0043610692629648794</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>-0.03482605388059945</v>
@@ -957,7 +983,7 @@
         <v>0.09138128123525667</v>
       </c>
       <c r="E30" s="0">
-        <v>0.0048570566346205083</v>
+        <v>0</v>
       </c>
       <c r="F30" s="0">
         <v>-0.051450041908256638</v>
@@ -983,7 +1009,7 @@
         <v>0.086514175258389781</v>
       </c>
       <c r="E31" s="0">
-        <v>0.005375955825997091</v>
+        <v>0</v>
       </c>
       <c r="F31" s="0">
         <v>-0.068113020834906335</v>
@@ -1009,7 +1035,7 @@
         <v>0.081891501015851936</v>
       </c>
       <c r="E32" s="0">
-        <v>0.005917079454467033</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>-0.084814082729660734</v>
@@ -1035,7 +1061,7 @@
         <v>0.077491402048448441</v>
       </c>
       <c r="E33" s="0">
-        <v>0.0064797654112176209</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0">
         <v>-0.10155234223079024</v>
@@ -1061,7 +1087,7 @@
         <v>0.073294714125919203</v>
       </c>
       <c r="E34" s="0">
-        <v>0.007063377520800748</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0">
         <v>-0.11832693984757536</v>
@@ -1087,7 +1113,7 @@
         <v>0.069284552913580266</v>
       </c>
       <c r="E35" s="0">
-        <v>0.0076673055722819329</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0">
         <v>-0.13513704240536467</v>
@@ -1113,7 +1139,7 @@
         <v>0.065445976187462548</v>
       </c>
       <c r="E36" s="0">
-        <v>0.0082909649176089867</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0">
         <v>-0.15198184200370535</v>
@@ -1139,7 +1165,7 @@
         <v>0.061765705116174116</v>
       </c>
       <c r="E37" s="0">
-        <v>0.0089337957869213575</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0">
         <v>-0.1688605544719658</v>
@@ -1165,7 +1191,7 @@
         <v>0.058231892703120215</v>
       </c>
       <c r="E38" s="0">
-        <v>0.0095952624397019504</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0">
         <v>-0.18577241813723161</v>
@@ -1191,7 +1217,7 @@
         <v>0.054833930215835561</v>
       </c>
       <c r="E39" s="0">
-        <v>0.010274852234776156</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0">
         <v>-0.20271669327529801</v>
@@ -1217,7 +1243,7 @@
         <v>0.051562284493863748</v>
       </c>
       <c r="E40" s="0">
-        <v>0.0109720746671231</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>-0.21969266214949423</v>
@@ -1243,7 +1269,7 @@
         <v>0.048408360527539065</v>
       </c>
       <c r="E41" s="0">
-        <v>0.011686460400970626</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
         <v>-0.23669962945168715</v>
@@ -1269,7 +1295,7 @@
         <v>0.045364384876431275</v>
       </c>
       <c r="E42" s="0">
-        <v>0.01241756030810726</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0">
         <v>-0.25373692275368404</v>
@@ -1295,7 +1321,7 @@
         <v>0.04242330634149484</v>
       </c>
       <c r="E43" s="0">
-        <v>0.013164944518156177</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>-0.27080389275827044</v>
@@ -1321,7 +1347,7 @@
         <v>0.039578707885904799</v>
       </c>
       <c r="E44" s="0">
-        <v>0.013928202338723147</v>
+        <v>0</v>
       </c>
       <c r="F44" s="0">
         <v>-0.28789993217511434</v>
@@ -1347,7 +1373,7 @@
         <v>0.036824739386525869</v>
       </c>
       <c r="E45" s="0">
-        <v>0.014706939897776895</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0">
         <v>-0.30502444214126662</v>
@@ -1373,7 +1399,7 @@
         <v>0.034156049442766616</v>
       </c>
       <c r="E46" s="0">
-        <v>0.01550078065731033</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0">
         <v>-0.32217686285364733</v>
@@ -1399,7 +1425,7 @@
         <v>0.031567729832875306</v>
       </c>
       <c r="E47" s="0">
-        <v>0.016309365071338049</v>
+        <v>0</v>
       </c>
       <c r="F47" s="0">
         <v>-0.33935668215756121</v>
@@ -1425,7 +1451,7 @@
         <v>0.029055367416875314</v>
       </c>
       <c r="E48" s="0">
-        <v>0.017132316745988457</v>
+        <v>0</v>
       </c>
       <c r="F48" s="0">
         <v>-0.35656274760068868</v>
@@ -1451,7 +1477,7 @@
         <v>0.026614692404640473</v>
       </c>
       <c r="E49" s="0">
-        <v>0.017969343109365651</v>
+        <v>0</v>
       </c>
       <c r="F49" s="0">
         <v>-0.37379538820737113</v>
@@ -1477,7 +1503,7 @@
         <v>0.024241931693753306</v>
       </c>
       <c r="E50" s="0">
-        <v>0.018820108573428817</v>
+        <v>0</v>
       </c>
       <c r="F50" s="0">
         <v>-0.39105376633340361</v>
@@ -1503,7 +1529,7 @@
         <v>0.021933552315653585</v>
       </c>
       <c r="E51" s="0">
-        <v>0.019684306103162155</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
         <v>-0.40833739722501905</v>
@@ -1529,7 +1555,7 @@
         <v>0.019686283638228289</v>
       </c>
       <c r="E52" s="0">
-        <v>0.020561640439314452</v>
+        <v>0</v>
       </c>
       <c r="F52" s="0">
         <v>-0.42564580879632158</v>
@@ -1555,7 +1581,7 @@
         <v>0.017497091610055793</v>
       </c>
       <c r="E53" s="0">
-        <v>0.021451827839719044</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
         <v>-0.44297854810179588</v>
@@ -1581,7 +1607,7 @@
         <v>0.01536315737756065</v>
       </c>
       <c r="E54" s="0">
-        <v>0.022354595283396696</v>
+        <v>0</v>
       </c>
       <c r="F54" s="0">
         <v>-0.46033517633975185</v>
@@ -1607,7 +1633,7 @@
         <v>0.013281857640159577</v>
       </c>
       <c r="E55" s="0">
-        <v>0.023269679971821625</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
         <v>-0.47771526917800011</v>
@@ -1633,7 +1659,7 @@
         <v>0.011250747273267124</v>
       </c>
       <c r="E56" s="0">
-        <v>0.024196828813519509</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
         <v>-0.49511841612617319</v>
@@ -1659,7 +1685,7 @@
         <v>0.0092675438149172201</v>
       </c>
       <c r="E57" s="0">
-        <v>0.02513579793888867</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
         <v>-0.5125442199351109</v>
@@ -1685,7 +1711,7 @@
         <v>0.0073301135837594228</v>
       </c>
       <c r="E58" s="0">
-        <v>0.026086352243438183</v>
+        <v>0</v>
       </c>
       <c r="F58" s="0">
         <v>-0.52999229602208497</v>
@@ -1711,7 +1737,7 @@
         <v>0.0054364592284873005</v>
       </c>
       <c r="E59" s="0">
-        <v>0.027048264957947987</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>-0.54746227192505326</v>
@@ -1737,7 +1763,7 @@
         <v>0.0035847085377733955</v>
       </c>
       <c r="E60" s="0">
-        <v>0.028021317243456915</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>-0.56495378677678232</v>
@@ -1763,7 +1789,7 @@
         <v>0.0017731043606717125</v>
       </c>
       <c r="E61" s="0">
-        <v>0.029005297810314967</v>
+        <v>0</v>
       </c>
       <c r="F61" s="0">
         <v>-0.58246649081244217</v>
@@ -1789,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0.029999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F62" s="0">
         <v>-0.59999999999999998</v>

--- a/Without Infomation/ParallelHomogeneous.xlsx
+++ b/Without Infomation/ParallelHomogeneous.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>EB_i</t>
+  </si>
+  <si>
+    <t>EB_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>EB_i</t>
+  </si>
+  <si>
+    <t>EB_org</t>
+  </si>
+  <si>
+    <t>fval</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
   <si>
     <t>M</t>
   </si>
@@ -177,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,11 +239,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -203,6 +253,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,28 +269,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
